--- a/public/format/prices/price_shipping_international.xlsx
+++ b/public/format/prices/price_shipping_international.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="34">
   <si>
     <t>style_code</t>
   </si>
@@ -74,12 +74,6 @@
     <t>1 &amp; 1/2 Inches</t>
   </si>
   <si>
-    <t>1-25inch</t>
-  </si>
-  <si>
-    <t>1-75inch</t>
-  </si>
-  <si>
     <t>embossed</t>
   </si>
   <si>
@@ -120,6 +114,15 @@
   </si>
   <si>
     <t>Blank</t>
+  </si>
+  <si>
+    <t>0-25inch</t>
+  </si>
+  <si>
+    <t>0-50inch</t>
+  </si>
+  <si>
+    <t>0-75inch</t>
   </si>
 </sst>
 </file>
@@ -598,13 +601,13 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -618,11 +621,11 @@
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="14">
@@ -634,11 +637,11 @@
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14">
@@ -650,11 +653,11 @@
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14">
@@ -666,11 +669,11 @@
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="14">
@@ -682,11 +685,11 @@
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="14">
@@ -698,11 +701,11 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="14">
@@ -714,11 +717,11 @@
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="14">
@@ -730,11 +733,11 @@
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="14">
@@ -746,11 +749,11 @@
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="14">
@@ -762,11 +765,11 @@
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="14">
@@ -778,11 +781,11 @@
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="14">
@@ -794,11 +797,11 @@
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>11</v>
@@ -812,11 +815,11 @@
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="14">
@@ -828,11 +831,11 @@
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="14">
@@ -844,11 +847,11 @@
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="14">
@@ -860,11 +863,11 @@
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="14">
@@ -876,11 +879,11 @@
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="14">
@@ -892,11 +895,11 @@
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="14">
@@ -908,11 +911,11 @@
     </row>
     <row r="21" spans="1:6" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="14">
@@ -924,11 +927,11 @@
     </row>
     <row r="22" spans="1:6" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="14">
@@ -940,11 +943,11 @@
     </row>
     <row r="23" spans="1:6" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="14">
@@ -956,11 +959,11 @@
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="14">
@@ -972,11 +975,11 @@
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="14">
@@ -988,11 +991,11 @@
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>14</v>
@@ -1006,11 +1009,11 @@
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="14">
@@ -1022,11 +1025,11 @@
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="14">
@@ -1038,11 +1041,11 @@
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="14">
@@ -1054,11 +1057,11 @@
     </row>
     <row r="30" spans="1:6" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="14">
@@ -1070,11 +1073,11 @@
     </row>
     <row r="31" spans="1:6" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="14">
@@ -1086,11 +1089,11 @@
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="14">
@@ -1102,11 +1105,11 @@
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="14">
@@ -1118,11 +1121,11 @@
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="14">
@@ -1134,11 +1137,11 @@
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="14">
@@ -1150,11 +1153,11 @@
     </row>
     <row r="36" spans="1:6" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="14">
@@ -1166,11 +1169,11 @@
     </row>
     <row r="37" spans="1:6" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="14">
@@ -1182,7 +1185,7 @@
     </row>
     <row r="38" spans="1:6" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
@@ -1200,7 +1203,7 @@
     </row>
     <row r="39" spans="1:6" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
@@ -1216,7 +1219,7 @@
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
@@ -1232,7 +1235,7 @@
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
@@ -1248,7 +1251,7 @@
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
@@ -1264,7 +1267,7 @@
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
@@ -1280,7 +1283,7 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
@@ -1296,7 +1299,7 @@
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
@@ -1312,7 +1315,7 @@
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
@@ -1328,7 +1331,7 @@
     </row>
     <row r="47" spans="1:6" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
@@ -1344,7 +1347,7 @@
     </row>
     <row r="48" spans="1:6" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
@@ -1360,7 +1363,7 @@
     </row>
     <row r="49" spans="1:6" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
@@ -1376,7 +1379,7 @@
     </row>
     <row r="50" spans="1:6" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
@@ -1394,7 +1397,7 @@
     </row>
     <row r="51" spans="1:6" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
@@ -1410,7 +1413,7 @@
     </row>
     <row r="52" spans="1:6" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
@@ -1426,7 +1429,7 @@
     </row>
     <row r="53" spans="1:6" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
@@ -1442,7 +1445,7 @@
     </row>
     <row r="54" spans="1:6" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
@@ -1458,7 +1461,7 @@
     </row>
     <row r="55" spans="1:6" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
@@ -1474,7 +1477,7 @@
     </row>
     <row r="56" spans="1:6" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
@@ -1490,7 +1493,7 @@
     </row>
     <row r="57" spans="1:6" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
@@ -1506,7 +1509,7 @@
     </row>
     <row r="58" spans="1:6" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
@@ -1522,7 +1525,7 @@
     </row>
     <row r="59" spans="1:6" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
@@ -1538,7 +1541,7 @@
     </row>
     <row r="60" spans="1:6" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
@@ -1554,7 +1557,7 @@
     </row>
     <row r="61" spans="1:6" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
@@ -1570,7 +1573,7 @@
     </row>
     <row r="62" spans="1:6" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
@@ -1588,7 +1591,7 @@
     </row>
     <row r="63" spans="1:6" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
@@ -1604,7 +1607,7 @@
     </row>
     <row r="64" spans="1:6" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9" t="s">
@@ -1620,7 +1623,7 @@
     </row>
     <row r="65" spans="1:6" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
@@ -1636,7 +1639,7 @@
     </row>
     <row r="66" spans="1:6" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
@@ -1652,7 +1655,7 @@
     </row>
     <row r="67" spans="1:6" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
@@ -1668,7 +1671,7 @@
     </row>
     <row r="68" spans="1:6" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
@@ -1684,7 +1687,7 @@
     </row>
     <row r="69" spans="1:6" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
@@ -1700,7 +1703,7 @@
     </row>
     <row r="70" spans="1:6" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
@@ -1716,7 +1719,7 @@
     </row>
     <row r="71" spans="1:6" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9" t="s">
@@ -1732,7 +1735,7 @@
     </row>
     <row r="72" spans="1:6" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
@@ -1748,7 +1751,7 @@
     </row>
     <row r="73" spans="1:6" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
@@ -1816,7 +1819,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -1834,7 +1837,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="14">
@@ -1850,7 +1853,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14">
@@ -1866,7 +1869,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14">
@@ -1882,7 +1885,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="14">
@@ -1898,7 +1901,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="14">
@@ -1914,7 +1917,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="14">
@@ -1930,7 +1933,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="14">
@@ -1946,7 +1949,7 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="14">
@@ -1962,7 +1965,7 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="14">
@@ -1978,7 +1981,7 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="14">
@@ -1994,7 +1997,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="14">
@@ -2010,7 +2013,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>11</v>
@@ -2028,7 +2031,7 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="14">
@@ -2044,7 +2047,7 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="14">
@@ -2060,7 +2063,7 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="14">
@@ -2076,7 +2079,7 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="14">
@@ -2092,7 +2095,7 @@
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="14">
@@ -2108,7 +2111,7 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="14">
@@ -2124,7 +2127,7 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="14">
@@ -2140,7 +2143,7 @@
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="14">
@@ -2156,7 +2159,7 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="14">
@@ -2172,7 +2175,7 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="14">
@@ -2188,7 +2191,7 @@
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="14">
@@ -2204,7 +2207,7 @@
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>14</v>
@@ -2222,7 +2225,7 @@
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="14">
@@ -2238,7 +2241,7 @@
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="14">
@@ -2254,7 +2257,7 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="14">
@@ -2270,7 +2273,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="14">
@@ -2286,7 +2289,7 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="14">
@@ -2302,7 +2305,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="14">
@@ -2318,7 +2321,7 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="14">
@@ -2334,7 +2337,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="14">
@@ -2350,7 +2353,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="14">
@@ -2366,7 +2369,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="14">
@@ -2382,7 +2385,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="14">
@@ -3024,13 +3027,13 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -3044,11 +3047,11 @@
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="14">
@@ -3060,11 +3063,11 @@
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14">
@@ -3076,11 +3079,11 @@
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14">
@@ -3092,11 +3095,11 @@
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="14">
@@ -3108,11 +3111,11 @@
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="14">
@@ -3124,11 +3127,11 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="14">
@@ -3140,11 +3143,11 @@
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="14">
@@ -3156,11 +3159,11 @@
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="14">
@@ -3172,11 +3175,11 @@
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="14">
@@ -3188,11 +3191,11 @@
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="14">
@@ -3204,11 +3207,11 @@
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="14">
@@ -3220,11 +3223,11 @@
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>11</v>
@@ -3238,11 +3241,11 @@
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="14">
@@ -3254,11 +3257,11 @@
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="14">
@@ -3270,11 +3273,11 @@
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="14">
@@ -3286,11 +3289,11 @@
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="14">
@@ -3302,11 +3305,11 @@
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="14">
@@ -3318,11 +3321,11 @@
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="14">
@@ -3334,11 +3337,11 @@
     </row>
     <row r="21" spans="1:6" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="14">
@@ -3350,11 +3353,11 @@
     </row>
     <row r="22" spans="1:6" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="14">
@@ -3366,11 +3369,11 @@
     </row>
     <row r="23" spans="1:6" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="14">
@@ -3382,11 +3385,11 @@
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="14">
@@ -3398,11 +3401,11 @@
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="14">
@@ -3414,11 +3417,11 @@
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>14</v>
@@ -3432,11 +3435,11 @@
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="14">
@@ -3448,11 +3451,11 @@
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="14">
@@ -3464,11 +3467,11 @@
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="14">
@@ -3480,11 +3483,11 @@
     </row>
     <row r="30" spans="1:6" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="14">
@@ -3496,11 +3499,11 @@
     </row>
     <row r="31" spans="1:6" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="14">
@@ -3512,11 +3515,11 @@
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="14">
@@ -3528,11 +3531,11 @@
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="14">
@@ -3544,11 +3547,11 @@
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="14">
@@ -3560,11 +3563,11 @@
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="14">
@@ -3576,11 +3579,11 @@
     </row>
     <row r="36" spans="1:6" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="14">
@@ -3592,11 +3595,11 @@
     </row>
     <row r="37" spans="1:6" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="14">
@@ -3608,7 +3611,7 @@
     </row>
     <row r="38" spans="1:6" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
@@ -3626,7 +3629,7 @@
     </row>
     <row r="39" spans="1:6" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
@@ -3642,7 +3645,7 @@
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
@@ -3658,7 +3661,7 @@
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
@@ -3674,7 +3677,7 @@
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
@@ -3690,7 +3693,7 @@
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
@@ -3706,7 +3709,7 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
@@ -3722,7 +3725,7 @@
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
@@ -3738,7 +3741,7 @@
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
@@ -3754,7 +3757,7 @@
     </row>
     <row r="47" spans="1:6" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
@@ -3770,7 +3773,7 @@
     </row>
     <row r="48" spans="1:6" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
@@ -3786,7 +3789,7 @@
     </row>
     <row r="49" spans="1:6" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
@@ -3802,7 +3805,7 @@
     </row>
     <row r="50" spans="1:6" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
@@ -3820,7 +3823,7 @@
     </row>
     <row r="51" spans="1:6" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
@@ -3836,7 +3839,7 @@
     </row>
     <row r="52" spans="1:6" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
@@ -3852,7 +3855,7 @@
     </row>
     <row r="53" spans="1:6" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
@@ -3868,7 +3871,7 @@
     </row>
     <row r="54" spans="1:6" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
@@ -3884,7 +3887,7 @@
     </row>
     <row r="55" spans="1:6" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
@@ -3900,7 +3903,7 @@
     </row>
     <row r="56" spans="1:6" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
@@ -3916,7 +3919,7 @@
     </row>
     <row r="57" spans="1:6" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
@@ -3932,7 +3935,7 @@
     </row>
     <row r="58" spans="1:6" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
@@ -3948,7 +3951,7 @@
     </row>
     <row r="59" spans="1:6" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
@@ -3964,7 +3967,7 @@
     </row>
     <row r="60" spans="1:6" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
@@ -3980,7 +3983,7 @@
     </row>
     <row r="61" spans="1:6" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
@@ -3996,7 +3999,7 @@
     </row>
     <row r="62" spans="1:6" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
@@ -4014,7 +4017,7 @@
     </row>
     <row r="63" spans="1:6" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
@@ -4030,7 +4033,7 @@
     </row>
     <row r="64" spans="1:6" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9" t="s">
@@ -4046,7 +4049,7 @@
     </row>
     <row r="65" spans="1:6" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
@@ -4062,7 +4065,7 @@
     </row>
     <row r="66" spans="1:6" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
@@ -4078,7 +4081,7 @@
     </row>
     <row r="67" spans="1:6" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
@@ -4094,7 +4097,7 @@
     </row>
     <row r="68" spans="1:6" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
@@ -4110,7 +4113,7 @@
     </row>
     <row r="69" spans="1:6" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
@@ -4126,7 +4129,7 @@
     </row>
     <row r="70" spans="1:6" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
@@ -4142,7 +4145,7 @@
     </row>
     <row r="71" spans="1:6" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9" t="s">
@@ -4158,7 +4161,7 @@
     </row>
     <row r="72" spans="1:6" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
@@ -4174,7 +4177,7 @@
     </row>
     <row r="73" spans="1:6" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
@@ -4235,13 +4238,13 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -4255,11 +4258,11 @@
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="14">
@@ -4271,11 +4274,11 @@
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14">
@@ -4287,11 +4290,11 @@
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14">
@@ -4303,11 +4306,11 @@
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="14">
@@ -4319,11 +4322,11 @@
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="14">
@@ -4335,11 +4338,11 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="14">
@@ -4351,11 +4354,11 @@
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="14">
@@ -4367,11 +4370,11 @@
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="14">
@@ -4383,11 +4386,11 @@
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="14">
@@ -4399,11 +4402,11 @@
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="14">
@@ -4415,11 +4418,11 @@
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="14">
@@ -4431,11 +4434,11 @@
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>11</v>
@@ -4449,11 +4452,11 @@
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="14">
@@ -4465,11 +4468,11 @@
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="14">
@@ -4481,11 +4484,11 @@
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="14">
@@ -4497,11 +4500,11 @@
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="14">
@@ -4513,11 +4516,11 @@
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="14">
@@ -4529,11 +4532,11 @@
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="14">
@@ -4545,11 +4548,11 @@
     </row>
     <row r="21" spans="1:6" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="14">
@@ -4561,11 +4564,11 @@
     </row>
     <row r="22" spans="1:6" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="14">
@@ -4577,11 +4580,11 @@
     </row>
     <row r="23" spans="1:6" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="14">
@@ -4593,11 +4596,11 @@
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="14">
@@ -4609,11 +4612,11 @@
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="14">
@@ -4625,11 +4628,11 @@
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>14</v>
@@ -4643,11 +4646,11 @@
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="14">
@@ -4659,11 +4662,11 @@
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="14">
@@ -4675,11 +4678,11 @@
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="14">
@@ -4691,11 +4694,11 @@
     </row>
     <row r="30" spans="1:6" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="14">
@@ -4707,11 +4710,11 @@
     </row>
     <row r="31" spans="1:6" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="14">
@@ -4723,11 +4726,11 @@
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="14">
@@ -4739,11 +4742,11 @@
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="14">
@@ -4755,11 +4758,11 @@
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="14">
@@ -4771,11 +4774,11 @@
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="14">
@@ -4787,11 +4790,11 @@
     </row>
     <row r="36" spans="1:6" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="14">
@@ -4803,11 +4806,11 @@
     </row>
     <row r="37" spans="1:6" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="14">
@@ -4819,7 +4822,7 @@
     </row>
     <row r="38" spans="1:6" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
@@ -4837,7 +4840,7 @@
     </row>
     <row r="39" spans="1:6" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
@@ -4853,7 +4856,7 @@
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
@@ -4869,7 +4872,7 @@
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
@@ -4885,7 +4888,7 @@
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
@@ -4901,7 +4904,7 @@
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
@@ -4917,7 +4920,7 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
@@ -4933,7 +4936,7 @@
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
@@ -4949,7 +4952,7 @@
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
@@ -4965,7 +4968,7 @@
     </row>
     <row r="47" spans="1:6" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
@@ -4981,7 +4984,7 @@
     </row>
     <row r="48" spans="1:6" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
@@ -4997,7 +5000,7 @@
     </row>
     <row r="49" spans="1:6" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
@@ -5013,7 +5016,7 @@
     </row>
     <row r="50" spans="1:6" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
@@ -5031,7 +5034,7 @@
     </row>
     <row r="51" spans="1:6" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
@@ -5047,7 +5050,7 @@
     </row>
     <row r="52" spans="1:6" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
@@ -5063,7 +5066,7 @@
     </row>
     <row r="53" spans="1:6" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
@@ -5079,7 +5082,7 @@
     </row>
     <row r="54" spans="1:6" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
@@ -5095,7 +5098,7 @@
     </row>
     <row r="55" spans="1:6" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
@@ -5111,7 +5114,7 @@
     </row>
     <row r="56" spans="1:6" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
@@ -5127,7 +5130,7 @@
     </row>
     <row r="57" spans="1:6" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
@@ -5143,7 +5146,7 @@
     </row>
     <row r="58" spans="1:6" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
@@ -5159,7 +5162,7 @@
     </row>
     <row r="59" spans="1:6" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
@@ -5175,7 +5178,7 @@
     </row>
     <row r="60" spans="1:6" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
@@ -5191,7 +5194,7 @@
     </row>
     <row r="61" spans="1:6" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
@@ -5207,7 +5210,7 @@
     </row>
     <row r="62" spans="1:6" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
@@ -5225,7 +5228,7 @@
     </row>
     <row r="63" spans="1:6" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
@@ -5241,7 +5244,7 @@
     </row>
     <row r="64" spans="1:6" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9" t="s">
@@ -5257,7 +5260,7 @@
     </row>
     <row r="65" spans="1:6" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
@@ -5273,7 +5276,7 @@
     </row>
     <row r="66" spans="1:6" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
@@ -5289,7 +5292,7 @@
     </row>
     <row r="67" spans="1:6" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
@@ -5305,7 +5308,7 @@
     </row>
     <row r="68" spans="1:6" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
@@ -5321,7 +5324,7 @@
     </row>
     <row r="69" spans="1:6" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
@@ -5337,7 +5340,7 @@
     </row>
     <row r="70" spans="1:6" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
@@ -5353,7 +5356,7 @@
     </row>
     <row r="71" spans="1:6" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9" t="s">
@@ -5369,7 +5372,7 @@
     </row>
     <row r="72" spans="1:6" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
@@ -5385,7 +5388,7 @@
     </row>
     <row r="73" spans="1:6" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
@@ -5447,13 +5450,13 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>11</v>
@@ -5467,11 +5470,11 @@
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="14">
@@ -5483,11 +5486,11 @@
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14">
@@ -5499,11 +5502,11 @@
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14">
@@ -5515,11 +5518,11 @@
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="14">
@@ -5531,11 +5534,11 @@
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="14">
@@ -5547,11 +5550,11 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="14">
@@ -5563,11 +5566,11 @@
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="14">
@@ -5579,11 +5582,11 @@
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="14">
@@ -5595,11 +5598,11 @@
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="14">
@@ -5611,11 +5614,11 @@
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="14">
@@ -5627,11 +5630,11 @@
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="14">
@@ -5643,11 +5646,11 @@
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>14</v>
@@ -5661,11 +5664,11 @@
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="14">
@@ -5677,11 +5680,11 @@
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="14">
@@ -5693,11 +5696,11 @@
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="14">
@@ -5709,11 +5712,11 @@
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="14">
@@ -5725,11 +5728,11 @@
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="14">
@@ -5741,11 +5744,11 @@
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="14">
@@ -5757,11 +5760,11 @@
     </row>
     <row r="21" spans="1:6" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="14">
@@ -5773,11 +5776,11 @@
     </row>
     <row r="22" spans="1:6" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="14">
@@ -5789,11 +5792,11 @@
     </row>
     <row r="23" spans="1:6" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="14">
@@ -5805,11 +5808,11 @@
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="14">
@@ -5821,11 +5824,11 @@
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="14">
@@ -5837,7 +5840,7 @@
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
@@ -5855,7 +5858,7 @@
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -5871,7 +5874,7 @@
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
@@ -5887,7 +5890,7 @@
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
@@ -5903,7 +5906,7 @@
     </row>
     <row r="30" spans="1:6" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
@@ -5919,7 +5922,7 @@
     </row>
     <row r="31" spans="1:6" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
@@ -5935,7 +5938,7 @@
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
@@ -5951,7 +5954,7 @@
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
@@ -5967,7 +5970,7 @@
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
@@ -5983,7 +5986,7 @@
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
@@ -5999,7 +6002,7 @@
     </row>
     <row r="36" spans="1:6" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
@@ -6015,7 +6018,7 @@
     </row>
     <row r="37" spans="1:6" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
@@ -6078,13 +6081,13 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -6098,11 +6101,11 @@
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="14">
@@ -6114,11 +6117,11 @@
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14">
@@ -6130,11 +6133,11 @@
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14">
@@ -6146,11 +6149,11 @@
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="14">
@@ -6162,11 +6165,11 @@
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="14">
@@ -6178,11 +6181,11 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="14">
@@ -6194,11 +6197,11 @@
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="14">
@@ -6210,11 +6213,11 @@
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="14">
@@ -6226,11 +6229,11 @@
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="14">
@@ -6242,11 +6245,11 @@
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="14">
@@ -6258,11 +6261,11 @@
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="14">
@@ -6274,11 +6277,11 @@
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>11</v>
@@ -6292,11 +6295,11 @@
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="14">
@@ -6308,11 +6311,11 @@
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="14">
@@ -6324,11 +6327,11 @@
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="14">
@@ -6340,11 +6343,11 @@
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="14">
@@ -6356,11 +6359,11 @@
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="14">
@@ -6372,11 +6375,11 @@
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="14">
@@ -6388,11 +6391,11 @@
     </row>
     <row r="21" spans="1:6" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="14">
@@ -6404,11 +6407,11 @@
     </row>
     <row r="22" spans="1:6" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="14">
@@ -6420,11 +6423,11 @@
     </row>
     <row r="23" spans="1:6" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="14">
@@ -6436,11 +6439,11 @@
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="14">
@@ -6452,11 +6455,11 @@
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="14">
@@ -6468,11 +6471,11 @@
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>14</v>
@@ -6486,11 +6489,11 @@
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="14">
@@ -6502,11 +6505,11 @@
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="14">
@@ -6518,11 +6521,11 @@
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="14">
@@ -6534,11 +6537,11 @@
     </row>
     <row r="30" spans="1:6" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="14">
@@ -6550,11 +6553,11 @@
     </row>
     <row r="31" spans="1:6" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="14">
@@ -6566,11 +6569,11 @@
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="14">
@@ -6582,11 +6585,11 @@
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="14">
@@ -6598,11 +6601,11 @@
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="14">
@@ -6614,11 +6617,11 @@
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="14">
@@ -6630,11 +6633,11 @@
     </row>
     <row r="36" spans="1:6" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="14">
@@ -6646,11 +6649,11 @@
     </row>
     <row r="37" spans="1:6" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="14">
@@ -6662,7 +6665,7 @@
     </row>
     <row r="38" spans="1:6" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
@@ -6680,7 +6683,7 @@
     </row>
     <row r="39" spans="1:6" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
@@ -6696,7 +6699,7 @@
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
@@ -6712,7 +6715,7 @@
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
@@ -6728,7 +6731,7 @@
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
@@ -6744,7 +6747,7 @@
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
@@ -6760,7 +6763,7 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
@@ -6776,7 +6779,7 @@
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
@@ -6792,7 +6795,7 @@
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
@@ -6808,7 +6811,7 @@
     </row>
     <row r="47" spans="1:6" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
@@ -6824,7 +6827,7 @@
     </row>
     <row r="48" spans="1:6" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
@@ -6840,7 +6843,7 @@
     </row>
     <row r="49" spans="1:6" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
@@ -6856,7 +6859,7 @@
     </row>
     <row r="50" spans="1:6" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
@@ -6874,7 +6877,7 @@
     </row>
     <row r="51" spans="1:6" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
@@ -6890,7 +6893,7 @@
     </row>
     <row r="52" spans="1:6" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
@@ -6906,7 +6909,7 @@
     </row>
     <row r="53" spans="1:6" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
@@ -6922,7 +6925,7 @@
     </row>
     <row r="54" spans="1:6" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
@@ -6938,7 +6941,7 @@
     </row>
     <row r="55" spans="1:6" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
@@ -6954,7 +6957,7 @@
     </row>
     <row r="56" spans="1:6" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
@@ -6970,7 +6973,7 @@
     </row>
     <row r="57" spans="1:6" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
@@ -6986,7 +6989,7 @@
     </row>
     <row r="58" spans="1:6" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
@@ -7002,7 +7005,7 @@
     </row>
     <row r="59" spans="1:6" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
@@ -7018,7 +7021,7 @@
     </row>
     <row r="60" spans="1:6" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
@@ -7034,7 +7037,7 @@
     </row>
     <row r="61" spans="1:6" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
@@ -7050,7 +7053,7 @@
     </row>
     <row r="62" spans="1:6" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
@@ -7068,7 +7071,7 @@
     </row>
     <row r="63" spans="1:6" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
@@ -7084,7 +7087,7 @@
     </row>
     <row r="64" spans="1:6" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9" t="s">
@@ -7100,7 +7103,7 @@
     </row>
     <row r="65" spans="1:6" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
@@ -7116,7 +7119,7 @@
     </row>
     <row r="66" spans="1:6" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
@@ -7132,7 +7135,7 @@
     </row>
     <row r="67" spans="1:6" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
@@ -7148,7 +7151,7 @@
     </row>
     <row r="68" spans="1:6" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
@@ -7164,7 +7167,7 @@
     </row>
     <row r="69" spans="1:6" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
@@ -7180,7 +7183,7 @@
     </row>
     <row r="70" spans="1:6" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
@@ -7196,7 +7199,7 @@
     </row>
     <row r="71" spans="1:6" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9" t="s">
@@ -7212,7 +7215,7 @@
     </row>
     <row r="72" spans="1:6" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
@@ -7228,7 +7231,7 @@
     </row>
     <row r="73" spans="1:6" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
@@ -7291,13 +7294,13 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -7311,11 +7314,11 @@
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="14">
@@ -7327,11 +7330,11 @@
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14">
@@ -7343,11 +7346,11 @@
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14">
@@ -7359,11 +7362,11 @@
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="14">
@@ -7375,11 +7378,11 @@
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="14">
@@ -7391,11 +7394,11 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="14">
@@ -7407,11 +7410,11 @@
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="14">
@@ -7423,11 +7426,11 @@
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="14">
@@ -7439,11 +7442,11 @@
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="14">
@@ -7455,11 +7458,11 @@
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="14">
@@ -7471,11 +7474,11 @@
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="14">
@@ -7487,11 +7490,11 @@
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>11</v>
@@ -7505,11 +7508,11 @@
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="14">
@@ -7521,11 +7524,11 @@
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="14">
@@ -7537,11 +7540,11 @@
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="14">
@@ -7553,11 +7556,11 @@
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="14">
@@ -7569,11 +7572,11 @@
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="14">
@@ -7585,11 +7588,11 @@
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="14">
@@ -7601,11 +7604,11 @@
     </row>
     <row r="21" spans="1:6" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="14">
@@ -7617,11 +7620,11 @@
     </row>
     <row r="22" spans="1:6" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="14">
@@ -7633,11 +7636,11 @@
     </row>
     <row r="23" spans="1:6" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="14">
@@ -7649,11 +7652,11 @@
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="14">
@@ -7665,11 +7668,11 @@
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="14">
@@ -7681,11 +7684,11 @@
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>14</v>
@@ -7699,11 +7702,11 @@
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="14">
@@ -7715,11 +7718,11 @@
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="14">
@@ -7731,11 +7734,11 @@
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="14">
@@ -7747,11 +7750,11 @@
     </row>
     <row r="30" spans="1:6" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="14">
@@ -7763,11 +7766,11 @@
     </row>
     <row r="31" spans="1:6" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="14">
@@ -7779,11 +7782,11 @@
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="14">
@@ -7795,11 +7798,11 @@
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="14">
@@ -7811,11 +7814,11 @@
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="14">
@@ -7827,11 +7830,11 @@
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="14">
@@ -7843,11 +7846,11 @@
     </row>
     <row r="36" spans="1:6" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="14">
@@ -7859,11 +7862,11 @@
     </row>
     <row r="37" spans="1:6" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="14">
@@ -7875,7 +7878,7 @@
     </row>
     <row r="38" spans="1:6" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
@@ -7893,7 +7896,7 @@
     </row>
     <row r="39" spans="1:6" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
@@ -7909,7 +7912,7 @@
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
@@ -7925,7 +7928,7 @@
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
@@ -7941,7 +7944,7 @@
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
@@ -7957,7 +7960,7 @@
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
@@ -7973,7 +7976,7 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
@@ -7989,7 +7992,7 @@
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
@@ -8005,7 +8008,7 @@
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
@@ -8021,7 +8024,7 @@
     </row>
     <row r="47" spans="1:6" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
@@ -8037,7 +8040,7 @@
     </row>
     <row r="48" spans="1:6" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
@@ -8053,7 +8056,7 @@
     </row>
     <row r="49" spans="1:6" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
@@ -8069,7 +8072,7 @@
     </row>
     <row r="50" spans="1:6" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
@@ -8087,7 +8090,7 @@
     </row>
     <row r="51" spans="1:6" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
@@ -8103,7 +8106,7 @@
     </row>
     <row r="52" spans="1:6" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
@@ -8119,7 +8122,7 @@
     </row>
     <row r="53" spans="1:6" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
@@ -8135,7 +8138,7 @@
     </row>
     <row r="54" spans="1:6" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
@@ -8151,7 +8154,7 @@
     </row>
     <row r="55" spans="1:6" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
@@ -8167,7 +8170,7 @@
     </row>
     <row r="56" spans="1:6" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
@@ -8183,7 +8186,7 @@
     </row>
     <row r="57" spans="1:6" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
@@ -8199,7 +8202,7 @@
     </row>
     <row r="58" spans="1:6" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
@@ -8215,7 +8218,7 @@
     </row>
     <row r="59" spans="1:6" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
@@ -8231,7 +8234,7 @@
     </row>
     <row r="60" spans="1:6" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
@@ -8247,7 +8250,7 @@
     </row>
     <row r="61" spans="1:6" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
@@ -8263,7 +8266,7 @@
     </row>
     <row r="62" spans="1:6" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
@@ -8281,7 +8284,7 @@
     </row>
     <row r="63" spans="1:6" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
@@ -8297,7 +8300,7 @@
     </row>
     <row r="64" spans="1:6" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9" t="s">
@@ -8313,7 +8316,7 @@
     </row>
     <row r="65" spans="1:6" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
@@ -8329,7 +8332,7 @@
     </row>
     <row r="66" spans="1:6" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
@@ -8345,7 +8348,7 @@
     </row>
     <row r="67" spans="1:6" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
@@ -8361,7 +8364,7 @@
     </row>
     <row r="68" spans="1:6" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
@@ -8377,7 +8380,7 @@
     </row>
     <row r="69" spans="1:6" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
@@ -8393,7 +8396,7 @@
     </row>
     <row r="70" spans="1:6" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
@@ -8409,7 +8412,7 @@
     </row>
     <row r="71" spans="1:6" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9" t="s">
@@ -8425,7 +8428,7 @@
     </row>
     <row r="72" spans="1:6" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
@@ -8441,7 +8444,7 @@
     </row>
     <row r="73" spans="1:6" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
@@ -8504,13 +8507,13 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
@@ -8524,11 +8527,11 @@
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="14">
@@ -8540,11 +8543,11 @@
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14">
@@ -8556,11 +8559,11 @@
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14">
@@ -8572,11 +8575,11 @@
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="14">
@@ -8588,11 +8591,11 @@
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="14">
@@ -8604,11 +8607,11 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="14">
@@ -8620,11 +8623,11 @@
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="14">
@@ -8636,11 +8639,11 @@
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="14">
@@ -8652,11 +8655,11 @@
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="14">
@@ -8668,11 +8671,11 @@
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="14">
@@ -8684,11 +8687,11 @@
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="14">
@@ -8700,11 +8703,11 @@
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>11</v>
@@ -8718,11 +8721,11 @@
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="14">
@@ -8734,11 +8737,11 @@
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="14">
@@ -8750,11 +8753,11 @@
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="14">
@@ -8766,11 +8769,11 @@
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="14">
@@ -8782,11 +8785,11 @@
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="14">
@@ -8798,11 +8801,11 @@
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="14">
@@ -8814,11 +8817,11 @@
     </row>
     <row r="21" spans="1:6" ht="22.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="14">
@@ -8830,11 +8833,11 @@
     </row>
     <row r="22" spans="1:6" ht="22.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="14">
@@ -8846,11 +8849,11 @@
     </row>
     <row r="23" spans="1:6" ht="22.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="14">
@@ -8862,11 +8865,11 @@
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="14">
@@ -8878,11 +8881,11 @@
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="14">
@@ -8894,11 +8897,11 @@
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>14</v>
@@ -8912,11 +8915,11 @@
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="14">
@@ -8928,11 +8931,11 @@
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="14">
@@ -8944,11 +8947,11 @@
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="14">
@@ -8960,11 +8963,11 @@
     </row>
     <row r="30" spans="1:6" ht="22.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="14">
@@ -8976,11 +8979,11 @@
     </row>
     <row r="31" spans="1:6" ht="22.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="14">
@@ -8992,11 +8995,11 @@
     </row>
     <row r="32" spans="1:6" ht="22.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="14">
@@ -9008,11 +9011,11 @@
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="14">
@@ -9024,11 +9027,11 @@
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="14">
@@ -9040,11 +9043,11 @@
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="14">
@@ -9056,11 +9059,11 @@
     </row>
     <row r="36" spans="1:6" ht="22.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="14">
@@ -9072,11 +9075,11 @@
     </row>
     <row r="37" spans="1:6" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="14">
@@ -9088,7 +9091,7 @@
     </row>
     <row r="38" spans="1:6" ht="22.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
@@ -9106,7 +9109,7 @@
     </row>
     <row r="39" spans="1:6" ht="22.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
@@ -9122,7 +9125,7 @@
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
@@ -9138,7 +9141,7 @@
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
@@ -9154,7 +9157,7 @@
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
@@ -9170,7 +9173,7 @@
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
@@ -9186,7 +9189,7 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
@@ -9202,7 +9205,7 @@
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
@@ -9218,7 +9221,7 @@
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
@@ -9234,7 +9237,7 @@
     </row>
     <row r="47" spans="1:6" ht="22.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
@@ -9250,7 +9253,7 @@
     </row>
     <row r="48" spans="1:6" ht="22.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
@@ -9266,7 +9269,7 @@
     </row>
     <row r="49" spans="1:6" ht="22.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
@@ -9282,7 +9285,7 @@
     </row>
     <row r="50" spans="1:6" ht="22.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
@@ -9300,7 +9303,7 @@
     </row>
     <row r="51" spans="1:6" ht="22.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
@@ -9316,7 +9319,7 @@
     </row>
     <row r="52" spans="1:6" ht="22.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
@@ -9332,7 +9335,7 @@
     </row>
     <row r="53" spans="1:6" ht="22.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
@@ -9348,7 +9351,7 @@
     </row>
     <row r="54" spans="1:6" ht="22.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
@@ -9364,7 +9367,7 @@
     </row>
     <row r="55" spans="1:6" ht="22.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
@@ -9380,7 +9383,7 @@
     </row>
     <row r="56" spans="1:6" ht="22.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
@@ -9396,7 +9399,7 @@
     </row>
     <row r="57" spans="1:6" ht="22.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
@@ -9412,7 +9415,7 @@
     </row>
     <row r="58" spans="1:6" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
@@ -9428,7 +9431,7 @@
     </row>
     <row r="59" spans="1:6" ht="22.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
@@ -9444,7 +9447,7 @@
     </row>
     <row r="60" spans="1:6" ht="22.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
@@ -9460,7 +9463,7 @@
     </row>
     <row r="61" spans="1:6" ht="22.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
@@ -9476,7 +9479,7 @@
     </row>
     <row r="62" spans="1:6" ht="22.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
@@ -9494,7 +9497,7 @@
     </row>
     <row r="63" spans="1:6" ht="22.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
@@ -9510,7 +9513,7 @@
     </row>
     <row r="64" spans="1:6" ht="22.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9" t="s">
@@ -9526,7 +9529,7 @@
     </row>
     <row r="65" spans="1:6" ht="22.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
@@ -9542,7 +9545,7 @@
     </row>
     <row r="66" spans="1:6" ht="22.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
@@ -9558,7 +9561,7 @@
     </row>
     <row r="67" spans="1:6" ht="22.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
@@ -9574,7 +9577,7 @@
     </row>
     <row r="68" spans="1:6" ht="22.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
@@ -9590,7 +9593,7 @@
     </row>
     <row r="69" spans="1:6" ht="22.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
@@ -9606,7 +9609,7 @@
     </row>
     <row r="70" spans="1:6" ht="22.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
@@ -9622,7 +9625,7 @@
     </row>
     <row r="71" spans="1:6" ht="22.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9" t="s">
@@ -9638,7 +9641,7 @@
     </row>
     <row r="72" spans="1:6" ht="22.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
@@ -9654,7 +9657,7 @@
     </row>
     <row r="73" spans="1:6" ht="22.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
